--- a/LW_7/Compare.xlsx
+++ b/LW_7/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дианочка\PycharmProjects\DigitalMediaProcessingAlgorithms\LW_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123B5DC-6DF9-4EC8-BDB3-C1E9B8624935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418D69E-9E6C-447D-884A-CF680C74F066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Task_1</t>
   </si>
@@ -39,10 +39,13 @@
     <t>Easy OCR</t>
   </si>
   <si>
-    <t>Task_2</t>
-  </si>
-  <si>
     <t>Tesseract OCR</t>
+  </si>
+  <si>
+    <t>Task_2_3</t>
+  </si>
+  <si>
+    <t>Task_4</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -99,6 +102,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -379,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +396,7 @@
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,9 +407,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -414,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -425,44 +429,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4.8800000000000003E-2</v>
+        <v>4.53E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.48780000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.57E-2</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>0.41870000000000002</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>5.28E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.4799999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
